--- a/ofc/estimates/bhaipari 250000 setidevi mandir/v.xlsx
+++ b/ofc/estimates/bhaipari 250000 setidevi mandir/v.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="15" r:id="rId1"/>
     <sheet name="WCR" sheetId="7" r:id="rId2"/>
     <sheet name="Valuation" sheetId="16" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="17" r:id="rId4"/>
+    <sheet name="Measurement" sheetId="18" r:id="rId4"/>
+    <sheet name="Field" sheetId="17" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
@@ -38,12 +40,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="94">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -322,15 +324,18 @@
   </si>
   <si>
     <t>With VAT</t>
+  </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -502,21 +507,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,7 +536,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -588,7 +593,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +607,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,7 +619,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,7 +632,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -644,68 +649,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,7 +664,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -725,13 +672,76 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1374,134 +1384,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="2" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1536,11 +1546,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="17"/>
@@ -1553,7 +1563,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>51</v>
@@ -1580,7 +1590,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="17">
@@ -1604,7 +1614,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>18</v>
@@ -1629,7 +1639,7 @@
       </c>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -1642,11 +1652,11 @@
       <c r="J13" s="15"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="60" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="10"/>
@@ -1659,7 +1669,7 @@
       <c r="J14" s="15"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>53</v>
@@ -1686,7 +1696,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="17">
@@ -1710,7 +1720,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>18</v>
@@ -1735,7 +1745,7 @@
       </c>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1748,11 +1758,11 @@
       <c r="J18" s="15"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="61" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="10"/>
@@ -1765,7 +1775,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="str">
         <f>B10</f>
@@ -1791,7 +1801,7 @@
       <c r="J20" s="15"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>18</v>
@@ -1816,7 +1826,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>20</v>
@@ -1834,7 +1844,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1847,7 +1857,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -1864,7 +1874,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>56</v>
@@ -1892,7 +1902,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="17">
@@ -1918,7 +1928,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="9" t="s">
         <v>18</v>
@@ -1943,7 +1953,7 @@
       </c>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="9" t="s">
         <v>20</v>
@@ -1961,7 +1971,7 @@
       </c>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="9"/>
       <c r="C29" s="21"/>
@@ -1974,11 +1984,11 @@
       <c r="J29" s="25"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>5</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="61" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="10"/>
@@ -1991,7 +2001,7 @@
       <c r="J30" s="15"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>58</v>
@@ -2019,7 +2029,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="41">
@@ -2045,7 +2055,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
         <v>59</v>
@@ -2071,7 +2081,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
         <v>18</v>
@@ -2096,7 +2106,7 @@
       </c>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
         <v>20</v>
@@ -2114,7 +2124,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -2127,11 +2137,11 @@
       <c r="J36" s="15"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>6</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="60" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="21"/>
@@ -2144,7 +2154,7 @@
       <c r="J37" s="25"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="9" t="s">
         <v>61</v>
@@ -2169,7 +2179,7 @@
       <c r="J38" s="25"/>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="9"/>
       <c r="C39" s="21">
@@ -2192,7 +2202,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="9"/>
       <c r="C40" s="21">
@@ -2215,7 +2225,7 @@
       <c r="J40" s="25"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="9" t="s">
         <v>18</v>
@@ -2240,7 +2250,7 @@
       </c>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="9" t="s">
         <v>20</v>
@@ -2258,7 +2268,7 @@
       </c>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="9"/>
       <c r="C43" s="21"/>
@@ -2271,8 +2281,8 @@
       <c r="J43" s="25"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="92">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="72">
         <v>7</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2300,7 +2310,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="29"/>
       <c r="C45" s="10"/>
@@ -2313,7 +2323,7 @@
       <c r="J45" s="15"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="40" t="s">
         <v>29</v>
@@ -2331,29 +2341,29 @@
       </c>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="87"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="67"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="73">
         <f>J46</f>
         <v>282373.23585084308</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="19">
         <v>100</v>
       </c>
@@ -2364,15 +2374,15 @@
       <c r="J48" s="35"/>
       <c r="K48" s="36"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="76">
         <v>250000</v>
       </c>
-      <c r="D49" s="67"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="19"/>
       <c r="F49" s="38"/>
       <c r="G49" s="39"/>
@@ -2381,16 +2391,16 @@
       <c r="J49" s="39"/>
       <c r="K49" s="38"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
       <c r="B50" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="76">
         <f>C49-C52-C53</f>
         <v>237500</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="19">
         <f>C50/C48*100</f>
         <v>84.108537866334359</v>
@@ -2402,16 +2412,16 @@
       <c r="J50" s="39"/>
       <c r="K50" s="38"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="37"/>
       <c r="B51" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="73">
         <f>C48-C50</f>
         <v>44873.235850843077</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="19">
         <f>100-E50</f>
         <v>15.891462133665641</v>
@@ -2423,16 +2433,16 @@
       <c r="J51" s="39"/>
       <c r="K51" s="38"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
       <c r="B52" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C52" s="73">
         <f>C49*0.03</f>
         <v>7500</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="19">
         <v>3</v>
       </c>
@@ -2443,16 +2453,16 @@
       <c r="J52" s="39"/>
       <c r="K52" s="38"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C53" s="73">
         <f>C49*0.02</f>
         <v>5000</v>
       </c>
-      <c r="D53" s="64"/>
+      <c r="D53" s="73"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -2465,6 +2475,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A7:F7"/>
@@ -2473,13 +2490,6 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2489,111 +2499,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-    </row>
-    <row r="3" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+    </row>
+    <row r="3" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="79" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="75">
+      <c r="C6" s="83">
         <f>F31</f>
         <v>282373.23585084308</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="43"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -2601,90 +2611,90 @@
         <v>32</v>
       </c>
       <c r="I6" s="42"/>
-      <c r="J6" s="75">
+      <c r="J6" s="83">
         <f>I31</f>
         <v>283710.37399446999</v>
       </c>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="I7" s="72" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="I7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="I8" s="73" t="s">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="str">
+        <f>Estimate!A6</f>
+        <v xml:space="preserve">Project:- सेतीदेवी मन्दिर जाने बाटो निर्माण </v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="I8" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="I9" s="73" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="str">
+        <f>Estimate!A7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="I9" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="69" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="91" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="45" t="s">
         <v>41</v>
       </c>
@@ -2703,10 +2713,10 @@
       <c r="I12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="68"/>
-    </row>
-    <row r="13" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12" s="92"/>
+      <c r="K12" s="91"/>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <f>Estimate!A9</f>
         <v>1</v>
@@ -2753,7 +2763,7 @@
         <v>10840.143674999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="46"/>
@@ -2767,7 +2777,7 @@
       <c r="K14" s="48"/>
       <c r="M14" s="57"/>
     </row>
-    <row r="15" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <f>Estimate!A14</f>
         <v>2</v>
@@ -2814,7 +2824,7 @@
         <v>828.34478665041149</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="46"/>
@@ -2828,7 +2838,7 @@
       <c r="K16" s="48"/>
       <c r="M16" s="57"/>
     </row>
-    <row r="17" spans="1:13" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <f>Estimate!A19</f>
         <v>3</v>
@@ -2875,7 +2885,7 @@
         <v>2334.431</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="53" t="str">
         <f>Estimate!B22</f>
@@ -2904,7 +2914,7 @@
         <v>257.65428000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="46"/>
@@ -2918,7 +2928,7 @@
       <c r="K19" s="48"/>
       <c r="M19" s="57"/>
     </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <f>Estimate!A24</f>
         <v>4</v>
@@ -2965,7 +2975,7 @@
         <v>3057.4187500000007</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="53" t="str">
         <f>Estimate!B28</f>
@@ -2994,7 +3004,7 @@
         <v>301.59781166666676</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="46"/>
@@ -3008,7 +3018,7 @@
       <c r="K22" s="48"/>
       <c r="M22" s="57"/>
     </row>
-    <row r="23" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <f>Estimate!A30</f>
         <v>5</v>
@@ -3055,7 +3065,7 @@
         <v>29582.713790345933</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="53" t="str">
         <f>Estimate!B35</f>
@@ -3084,7 +3094,7 @@
         <v>2761.0572691502216</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="46"/>
@@ -3098,7 +3108,7 @@
       <c r="K25" s="48"/>
       <c r="M25" s="57"/>
     </row>
-    <row r="26" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <f>Estimate!A37</f>
         <v>6</v>
@@ -3145,7 +3155,7 @@
         <v>287434.43211703748</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
       <c r="B27" s="53" t="str">
         <f>Estimate!B42</f>
@@ -3170,11 +3180,11 @@
       </c>
       <c r="K27" s="48"/>
       <c r="M27" s="57">
-        <f t="shared" ref="M26:M28" si="1">1.25*F27</f>
+        <f t="shared" ref="M27" si="1">1.25*F27</f>
         <v>14943.751333703138</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="46"/>
@@ -3188,7 +3198,7 @@
       <c r="K28" s="48"/>
       <c r="M28" s="57"/>
     </row>
-    <row r="29" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <f>Estimate!A44</f>
         <v>7</v>
@@ -3235,7 +3245,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="46"/>
@@ -3248,7 +3258,7 @@
       <c r="J30" s="47"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="50" t="s">
         <v>42</v>
@@ -3272,7 +3282,7 @@
       </c>
       <c r="K31" s="28"/>
     </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K36">
         <v>1070</v>
       </c>
@@ -3287,6 +3297,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -3294,19 +3317,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3324,134 +3334,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="2" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3486,11 +3496,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="17"/>
@@ -3503,7 +3513,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>53</v>
@@ -3530,7 +3540,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>51</v>
@@ -3557,7 +3567,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>18</v>
@@ -3582,7 +3592,7 @@
       </c>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -3595,11 +3605,11 @@
       <c r="J13" s="15"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="60" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="10"/>
@@ -3612,7 +3622,7 @@
       <c r="J14" s="15"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>53</v>
@@ -3639,7 +3649,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="17">
@@ -3663,7 +3673,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>18</v>
@@ -3688,7 +3698,7 @@
       </c>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -3701,11 +3711,11 @@
       <c r="J18" s="15"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="61" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="10"/>
@@ -3718,7 +3728,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="str">
         <f>B10</f>
@@ -3744,7 +3754,7 @@
       <c r="J20" s="15"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>18</v>
@@ -3769,7 +3779,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>20</v>
@@ -3787,7 +3797,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -3800,7 +3810,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -3817,7 +3827,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>56</v>
@@ -3845,7 +3855,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="17">
@@ -3871,7 +3881,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="9" t="s">
         <v>18</v>
@@ -3896,7 +3906,7 @@
       </c>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="9" t="s">
         <v>20</v>
@@ -3914,7 +3924,7 @@
       </c>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="9"/>
       <c r="C29" s="21"/>
@@ -3927,11 +3937,11 @@
       <c r="J29" s="25"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>5</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="61" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="10"/>
@@ -3944,7 +3954,7 @@
       <c r="J30" s="15"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>58</v>
@@ -3972,7 +3982,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="41">
@@ -3997,7 +4007,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
         <v>59</v>
@@ -4023,7 +4033,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
         <v>18</v>
@@ -4048,7 +4058,7 @@
       </c>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
         <v>20</v>
@@ -4066,7 +4076,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -4079,14 +4089,14 @@
       <c r="J36" s="15"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>6</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="90"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -4096,7 +4106,7 @@
       <c r="J37" s="25"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="9" t="s">
         <v>61</v>
@@ -4120,7 +4130,7 @@
       <c r="J38" s="25"/>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="9" t="s">
         <v>18</v>
@@ -4145,7 +4155,7 @@
       </c>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="9" t="s">
         <v>20</v>
@@ -4163,7 +4173,7 @@
       </c>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="29"/>
       <c r="C41" s="10"/>
@@ -4176,7 +4186,7 @@
       <c r="J41" s="15"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>7</v>
       </c>
@@ -4205,7 +4215,7 @@
       </c>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="29"/>
       <c r="C43" s="10"/>
@@ -4218,7 +4228,7 @@
       <c r="J43" s="15"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="40" t="s">
         <v>29</v>
@@ -4236,29 +4246,29 @@
       </c>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="87"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="67"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="64">
+      <c r="C46" s="73">
         <f>J44</f>
         <v>283710.37399446999</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="19">
         <v>100</v>
       </c>
@@ -4269,15 +4279,15 @@
       <c r="J46" s="35"/>
       <c r="K46" s="36"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="76">
         <v>250000</v>
       </c>
-      <c r="D47" s="67"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="19"/>
       <c r="F47" s="38"/>
       <c r="G47" s="39"/>
@@ -4286,16 +4296,16 @@
       <c r="J47" s="39"/>
       <c r="K47" s="38"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
       <c r="B48" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="76">
         <f>C47-C50-C51</f>
         <v>237500</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="19">
         <f>C48/C46*100</f>
         <v>83.712131021556971</v>
@@ -4307,16 +4317,16 @@
       <c r="J48" s="39"/>
       <c r="K48" s="38"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="64">
+      <c r="C49" s="73">
         <f>C46-C48</f>
         <v>46210.373994469992</v>
       </c>
-      <c r="D49" s="64"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="19">
         <f>100-E48</f>
         <v>16.287868978443029</v>
@@ -4328,16 +4338,16 @@
       <c r="J49" s="39"/>
       <c r="K49" s="38"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
       <c r="B50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="73">
         <f>C47*0.03</f>
         <v>7500</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="19">
         <v>3</v>
       </c>
@@ -4348,16 +4358,16 @@
       <c r="J50" s="39"/>
       <c r="K50" s="38"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="37"/>
       <c r="B51" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="73">
         <f>C47*0.02</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="19">
         <v>2</v>
       </c>
@@ -4370,6 +4380,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="A7:F7"/>
@@ -4378,13 +4395,6 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4396,22 +4406,1092 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <f>D38</f>
+        <v>67.5</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <f>PRODUCT(C10:F10)</f>
+        <v>14.174999999999999</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="18">
+        <f>0.45</f>
+        <v>0.45</v>
+      </c>
+      <c r="G11" s="19">
+        <f>PRODUCT(C11:F11)</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13">
+        <f>SUM(G10:G11)</f>
+        <v>15.002999999999998</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="13">
+        <v>663.31</v>
+      </c>
+      <c r="J12" s="15">
+        <f>G12*I12</f>
+        <v>9951.6399299999975</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
+        <f>(7-0.75)/3.281</f>
+        <v>1.9049070405364217</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <f>(PRODUCT(C15:F15))*560*0.5</f>
+        <v>53.337397135019813</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <f>(PRODUCT(C16:F16))*560*0.5</f>
+        <v>48.300000000000004</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13">
+        <f>SUM(G15:G16)</f>
+        <v>101.63739713501982</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="13">
+        <v>6.52</v>
+      </c>
+      <c r="J17" s="15">
+        <f>G17*I17</f>
+        <v>662.67582932032917</v>
+      </c>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>3</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="str">
+        <f>B10</f>
+        <v>-Road</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="19">
+        <f>PRODUCT(C20:F20)</f>
+        <v>1.84</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13">
+        <f>SUM(G20:G20)</f>
+        <v>1.84</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1014.97</v>
+      </c>
+      <c r="J21" s="15">
+        <f>G21*I21</f>
+        <v>1867.5448000000001</v>
+      </c>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="15">
+        <f>0.13*G21*8617.2/10</f>
+        <v>206.12342400000003</v>
+      </c>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <f>D33</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="18">
+        <f>E33</f>
+        <v>0.23</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="19">
+        <f>PRODUCT(C25:F25)</f>
+        <v>9.2000000000000012E-2</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <f>D25</f>
+        <v>8</v>
+      </c>
+      <c r="E26" s="18">
+        <f>E25</f>
+        <v>0.23</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="19">
+        <f>PRODUCT(C26:F26)</f>
+        <v>9.2000000000000012E-2</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23">
+        <f>SUM(G25:G26)</f>
+        <v>0.18400000000000002</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="23">
+        <v>10634.5</v>
+      </c>
+      <c r="J27" s="24">
+        <f>G27*I27</f>
+        <v>1956.7480000000003</v>
+      </c>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="25">
+        <f>0.13*G27*((114907.3+6135.3)/15)</f>
+        <v>193.02259946666672</v>
+      </c>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>5</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="18">
+        <f>1.17+2.34-0.1+0.62-0.1+1.02-0.1</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E31" s="18">
+        <f>E15</f>
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="G31" s="19">
+        <f>PRODUCT(C31:F31)</f>
+        <v>0.15762499999999999</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="41">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2.44</v>
+      </c>
+      <c r="E32" s="18">
+        <f>E16</f>
+        <v>0.23</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="G32" s="19">
+        <f>PRODUCT(C32:F32)</f>
+        <v>0.39284000000000002</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="41">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18">
+        <v>8</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="G33" s="19">
+        <f>PRODUCT(C33:F33)</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13">
+        <f>SUM(G31:G33)</f>
+        <v>1.3784650000000001</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="13">
+        <v>14362.76</v>
+      </c>
+      <c r="J34" s="15">
+        <f>G34*I34</f>
+        <v>19798.5619634</v>
+      </c>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="15">
+        <f>0.13*G34*10311.74</f>
+        <v>1847.8684482830001</v>
+      </c>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>6</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="70"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1</v>
+      </c>
+      <c r="D38" s="22">
+        <v>67.5</v>
+      </c>
+      <c r="E38" s="22">
+        <v>2</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="19">
+        <f>PRODUCT(C38:F38)</f>
+        <v>135</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23">
+        <f>SUM(G38:G38)</f>
+        <v>135</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="23">
+        <v>1737.28</v>
+      </c>
+      <c r="J39" s="24">
+        <f>G39*I39</f>
+        <v>234532.8</v>
+      </c>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="25">
+        <f>0.13*G39*(6947.8/10)</f>
+        <v>12193.388999999999</v>
+      </c>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="1:11" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="30">
+        <f t="shared" ref="G42" si="0">PRODUCT(C42:F42)</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="13">
+        <v>500</v>
+      </c>
+      <c r="J42" s="30">
+        <f>G42*I42</f>
+        <v>500</v>
+      </c>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15">
+        <f>SUM(J10:J42)</f>
+        <v>283710.37399446999</v>
+      </c>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="67"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="73">
+        <f>J44</f>
+        <v>283710.37399446999</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="19">
+        <v>100</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="76">
+        <v>250000</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="38"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="76">
+        <f>C47-C50-C51</f>
+        <v>237500</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="19">
+        <f>C48/C46*100</f>
+        <v>83.712131021556971</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="38"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="73">
+        <f>C46-C48</f>
+        <v>46210.373994469992</v>
+      </c>
+      <c r="D49" s="73"/>
+      <c r="E49" s="19">
+        <f>100-E48</f>
+        <v>16.287868978443029</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="38"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
+      <c r="B50" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="73">
+        <f>C47*0.03</f>
+        <v>7500</v>
+      </c>
+      <c r="D50" s="73"/>
+      <c r="E50" s="19">
+        <v>3</v>
+      </c>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="38"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="73">
+        <f>C47*0.02</f>
+        <v>5000</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="19">
+        <v>2</v>
+      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -4421,11 +5501,11 @@
       <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>65</v>
       </c>
@@ -4435,9 +5515,9 @@
       <c r="D2">
         <v>2.1</v>
       </c>
-      <c r="E2" s="91"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -4447,12 +5527,12 @@
       <c r="D3">
         <v>2.1</v>
       </c>
-      <c r="E3" s="91">
+      <c r="E3" s="71">
         <f>(D3+D2)/2</f>
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -4462,21 +5542,21 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="71">
         <f t="shared" ref="E4:E17" si="0">(D4+D3)/2</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="71" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -4486,27 +5566,27 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="68">
         <f>(Valuation!G21*6360.9/10)+(Valuation!G34*8481.2)</f>
         <v>12861.442958000001</v>
       </c>
-      <c r="I5" s="88">
+      <c r="I5" s="68">
         <f>0.13*H5</f>
         <v>1671.9875845400002</v>
       </c>
-      <c r="J5" s="88">
+      <c r="J5" s="68">
         <f>SUM(H5:I5)</f>
         <v>14533.430542540002</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -4516,27 +5596,27 @@
       <c r="D6">
         <v>2.1</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="71">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="68">
         <f>(Valuation!G21*2256.3/10)+(Valuation!G27*21432.6/15)+(Valuation!G34*(953.37))</f>
         <v>1992.2529370500001</v>
       </c>
-      <c r="I6" s="88">
-        <f t="shared" ref="I5:I11" si="1">0.13*H6</f>
+      <c r="I6" s="68">
+        <f t="shared" ref="I6:I11" si="1">0.13*H6</f>
         <v>258.99288181650002</v>
       </c>
-      <c r="J6" s="88">
+      <c r="J6" s="68">
         <f t="shared" ref="J6:J12" si="2">SUM(H6:I6)</f>
         <v>2251.2458188665</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -4546,27 +5626,27 @@
       <c r="D7">
         <v>2.1</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="68">
         <f>(Valuation!G27*49275.03/15+Valuation!G34*849.17)</f>
         <v>1774.99149205</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="68">
         <f t="shared" si="1"/>
         <v>230.74889396650002</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="68">
         <f t="shared" si="2"/>
         <v>2005.7403860165</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>71</v>
       </c>
@@ -4576,27 +5656,27 @@
       <c r="D8">
         <v>2.1</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="68">
         <f>Valuation!G27*(25719.12+13573.98+4286.52)/15</f>
         <v>534.57667200000003</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="68">
         <f t="shared" si="1"/>
         <v>69.494967360000004</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="68">
         <f t="shared" si="2"/>
         <v>604.07163936000006</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -4606,27 +5686,27 @@
       <c r="D9">
         <v>2.1</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="68">
         <f>(Valuation!G27*(620)/15)+Valuation!G34*28</f>
         <v>46.202353333333335</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="68">
         <f t="shared" si="1"/>
         <v>6.0063059333333335</v>
       </c>
-      <c r="J9" s="88">
+      <c r="J9" s="68">
         <f t="shared" si="2"/>
         <v>52.208659266666672</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -4636,27 +5716,27 @@
       <c r="D10">
         <v>2.1</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="68">
         <f>Valuation!G27*(6135.3)/15</f>
         <v>75.259680000000017</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="68">
         <f t="shared" si="1"/>
         <v>9.7837584000000017</v>
       </c>
-      <c r="J10" s="88">
+      <c r="J10" s="68">
         <f t="shared" si="2"/>
         <v>85.043438400000014</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -4666,27 +5746,27 @@
       <c r="D11">
         <v>2.1</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="68">
         <f>(Valuation!G39*6036.36/10)</f>
         <v>81490.86</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="68">
         <f t="shared" si="1"/>
         <v>10593.811800000001</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="68">
         <f t="shared" si="2"/>
         <v>92084.671799999996</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -4696,27 +5776,27 @@
       <c r="D12">
         <v>2.1</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="68">
         <f>(Valuation!G39*33.99/10)+(Valuation!G39*877.45/10)</f>
         <v>12304.44</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="68">
         <f>0.13*H12</f>
         <v>1599.5772000000002</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="68">
         <f t="shared" si="2"/>
         <v>13904.0172</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -4726,13 +5806,13 @@
       <c r="D13">
         <v>2.1</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="I13" s="88"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="68"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -4742,21 +5822,21 @@
       <c r="D14">
         <v>2.1</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="88">
+      <c r="G14" s="71"/>
+      <c r="H14" s="68">
         <f>SUM(H5:H12)</f>
         <v>111080.02609243334</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="68">
         <f>0.13*H14</f>
         <v>14440.403392016335</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -4766,19 +5846,19 @@
       <c r="D15">
         <v>2.1</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="68">
         <f>Valuation!J22+Valuation!J28+Valuation!J35+Valuation!J40</f>
         <v>14440.403471749665</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -4788,13 +5868,13 @@
       <c r="D16">
         <v>2.1</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="71">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="H16" s="88"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>80</v>
       </c>
@@ -4804,17 +5884,17 @@
       <c r="D17">
         <v>2.15</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="71">
         <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="88"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="88"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="68"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/bhaipari 250000 setidevi mandir/v.xlsx
+++ b/ofc/estimates/bhaipari 250000 setidevi mandir/v.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="15" r:id="rId1"/>
@@ -37,15 +37,15 @@
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$32</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -191,9 +191,6 @@
     <t>sqm</t>
   </si>
   <si>
-    <t xml:space="preserve">Date:2081/10/24       </t>
-  </si>
-  <si>
     <t xml:space="preserve">Project:- सेतीदेवी मन्दिर जाने बाटो निर्माण </t>
   </si>
   <si>
@@ -327,6 +324,12 @@
   </si>
   <si>
     <t>Detail Quantity Measurement Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2081/11/13       </t>
+  </si>
+  <si>
+    <t>Date:2081/11/13</t>
   </si>
 </sst>
 </file>
@@ -679,6 +682,26 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,22 +712,22 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -722,26 +745,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1384,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1478,38 +1481,38 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1566,7 +1569,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -1657,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -1672,7 +1675,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -1763,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -1862,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -1877,7 +1880,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -1989,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
@@ -2004,7 +2007,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="41">
         <v>0.5</v>
@@ -2058,7 +2061,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="41">
         <v>1</v>
@@ -2137,12 +2140,12 @@
       <c r="J36" s="15"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>6</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
@@ -2157,7 +2160,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="21">
         <v>1</v>
@@ -2239,7 +2242,7 @@
         <v>132.36067052727827</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" s="23">
         <v>1737.28</v>
@@ -2359,11 +2362,11 @@
       <c r="B48" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="81">
         <f>J46</f>
         <v>282373.23585084308</v>
       </c>
-      <c r="D48" s="73"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="19">
         <v>100</v>
       </c>
@@ -2379,10 +2382,10 @@
       <c r="B49" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="84">
         <v>250000</v>
       </c>
-      <c r="D49" s="76"/>
+      <c r="D49" s="84"/>
       <c r="E49" s="19"/>
       <c r="F49" s="38"/>
       <c r="G49" s="39"/>
@@ -2396,11 +2399,11 @@
       <c r="B50" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="84">
         <f>C49-C52-C53</f>
         <v>237500</v>
       </c>
-      <c r="D50" s="76"/>
+      <c r="D50" s="84"/>
       <c r="E50" s="19">
         <f>C50/C48*100</f>
         <v>84.108537866334359</v>
@@ -2417,11 +2420,11 @@
       <c r="B51" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="81">
         <f>C48-C50</f>
         <v>44873.235850843077</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="19">
         <f>100-E50</f>
         <v>15.891462133665641</v>
@@ -2438,11 +2441,11 @@
       <c r="B52" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="81">
         <f>C49*0.03</f>
         <v>7500</v>
       </c>
-      <c r="D52" s="73"/>
+      <c r="D52" s="81"/>
       <c r="E52" s="19">
         <v>3</v>
       </c>
@@ -2458,11 +2461,11 @@
       <c r="B53" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="81">
         <f>C49*0.02</f>
         <v>5000</v>
       </c>
-      <c r="D53" s="73"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -2475,13 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A7:F7"/>
@@ -2490,6 +2486,13 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2497,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,34 +2523,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
@@ -2580,30 +2583,30 @@
       <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="83">
-        <f>F31</f>
+      <c r="C6" s="91">
+        <f>F30</f>
         <v>282373.23585084308</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="43"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -2611,11 +2614,11 @@
         <v>32</v>
       </c>
       <c r="I6" s="42"/>
-      <c r="J6" s="83">
-        <f>I31</f>
+      <c r="J6" s="91">
+        <f>I30</f>
         <v>283710.37399446999</v>
       </c>
-      <c r="K6" s="84"/>
+      <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -2633,15 +2636,15 @@
       <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="str">
+      <c r="A8" s="75" t="str">
         <f>Estimate!A6</f>
         <v xml:space="preserve">Project:- सेतीदेवी मन्दिर जाने बाटो निर्माण </v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
       <c r="I8" s="90" t="s">
         <v>43</v>
       </c>
@@ -2649,231 +2652,260 @@
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="str">
+      <c r="A9" s="75" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
       <c r="I9" s="90" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="91" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="45" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="92"/>
-      <c r="K12" s="91"/>
-    </row>
-    <row r="13" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
+      <c r="J11" s="86"/>
+      <c r="K11" s="85"/>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="54">
         <f>Estimate!A9</f>
         <v>1</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B12" s="55" t="str">
         <f>Estimate!B9</f>
         <v>g/d k|sf/sf] Sn] / l;N6L df6f]df ;j} lsl;dsf] vGg] sfd</v>
       </c>
-      <c r="C13" s="46" t="str">
+      <c r="C12" s="46" t="str">
         <f>Estimate!H12</f>
         <v>m3</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D12" s="46">
         <f>Estimate!G12</f>
         <v>13.073999999999998</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E12" s="46">
         <f>Estimate!I12</f>
         <v>663.31</v>
       </c>
-      <c r="F13" s="46">
-        <f>D13*E13</f>
+      <c r="F12" s="46">
+        <f>D12*E12</f>
         <v>8672.1149399999977</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G12" s="46">
         <f>Valuation!G12</f>
         <v>15.002999999999998</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H12" s="46">
         <f>Valuation!I12</f>
         <v>663.31</v>
       </c>
-      <c r="I13" s="46">
-        <f>G13*H13</f>
+      <c r="I12" s="46">
+        <f>G12*H12</f>
         <v>9951.6399299999975</v>
       </c>
-      <c r="J13" s="47">
-        <f>I13-F13</f>
+      <c r="J12" s="47">
+        <f>I12-F12</f>
         <v>1279.5249899999999</v>
       </c>
+      <c r="K12" s="48"/>
+      <c r="M12" s="57">
+        <f>1.25*F12</f>
+        <v>10840.143674999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="48"/>
-      <c r="M13" s="57">
-        <f>1.25*F13</f>
-        <v>10840.143674999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
         <f>Estimate!A14</f>
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="str">
+      <c r="B14" s="56" t="str">
         <f>Estimate!B14</f>
         <v xml:space="preserve">l;d]G6 d;nfsf] uf/f]af6 O{6f lemls nfu]sf] d;nf ;kmf ug]{ tyf k'gM k|of]u ug]{ ;lsg] u/L yGsfpg] sfd . </v>
       </c>
-      <c r="C15" s="46" t="str">
+      <c r="C14" s="46" t="str">
         <f>Estimate!H17</f>
         <v>m3</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D14" s="46">
         <f>Estimate!G17</f>
         <v>101.63739713501982</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E14" s="46">
         <f>Estimate!I17</f>
         <v>6.52</v>
       </c>
-      <c r="F15" s="46">
-        <f>D15*E15</f>
+      <c r="F14" s="46">
+        <f>D14*E14</f>
         <v>662.67582932032917</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G14" s="46">
         <f>Valuation!G17</f>
         <v>101.63739713501982</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H14" s="46">
         <f>Valuation!I17</f>
         <v>6.52</v>
       </c>
-      <c r="I15" s="46">
-        <f>G15*H15</f>
+      <c r="I14" s="46">
+        <f>G14*H14</f>
         <v>662.67582932032917</v>
       </c>
-      <c r="J15" s="47">
-        <f>I15-F15</f>
+      <c r="J14" s="47">
+        <f>I14-F14</f>
         <v>0</v>
       </c>
+      <c r="K14" s="48"/>
+      <c r="M14" s="57">
+        <f t="shared" ref="M14:M28" si="0">1.25*F14</f>
+        <v>828.34478665041149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="48"/>
-      <c r="M15" s="57">
-        <f t="shared" ref="M15:M29" si="0">1.25*F15</f>
-        <v>828.34478665041149</v>
-      </c>
+      <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="M16" s="57"/>
-    </row>
-    <row r="17" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A16" s="54">
         <f>Estimate!A19</f>
         <v>3</v>
       </c>
-      <c r="B17" s="56" t="str">
+      <c r="B16" s="56" t="str">
         <f>Estimate!B19</f>
         <v>;'Vvf O{6f RofK6f] 5fKg] sfd</v>
       </c>
-      <c r="C17" s="46" t="str">
+      <c r="C16" s="46" t="str">
         <f>Estimate!H21</f>
         <v>sqm</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D16" s="46">
         <f>Estimate!G21</f>
         <v>1.84</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E16" s="46">
         <f>Estimate!I21</f>
         <v>1014.97</v>
       </c>
-      <c r="F17" s="46">
-        <f>D17*E17</f>
+      <c r="F16" s="46">
+        <f>D16*E16</f>
         <v>1867.5448000000001</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G16" s="46">
         <f>Valuation!G21</f>
         <v>1.84</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H16" s="46">
         <f>Valuation!I21</f>
         <v>1014.97</v>
       </c>
+      <c r="I16" s="46">
+        <f>G16*H16</f>
+        <v>1867.5448000000001</v>
+      </c>
+      <c r="J16" s="47">
+        <f>I16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="M16" s="57">
+        <f t="shared" si="0"/>
+        <v>2334.431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="53" t="str">
+        <f>Estimate!B22</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46">
+        <f>Estimate!J22</f>
+        <v>206.12342400000003</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="46">
-        <f>G17*H17</f>
-        <v>1867.5448000000001</v>
+        <f>Valuation!J22</f>
+        <v>206.12342400000003</v>
       </c>
       <c r="J17" s="47">
         <f>I17-F17</f>
@@ -2882,434 +2914,392 @@
       <c r="K17" s="48"/>
       <c r="M17" s="57">
         <f t="shared" si="0"/>
-        <v>2334.431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="53" t="str">
-        <f>Estimate!B22</f>
-        <v>VAT calculation</v>
-      </c>
+        <v>257.65428000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
-      <c r="F18" s="46">
-        <f>Estimate!J22</f>
-        <v>206.12342400000003</v>
-      </c>
+      <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="46">
-        <f>Valuation!J22</f>
-        <v>206.12342400000003</v>
-      </c>
-      <c r="J18" s="47">
-        <f>I18-F18</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="M18" s="57">
-        <f t="shared" si="0"/>
-        <v>257.65428000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="M18" s="57"/>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
         <f>Estimate!A24</f>
         <v>4</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B19" s="7" t="str">
         <f>Estimate!B24</f>
         <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
       </c>
-      <c r="C20" s="46" t="str">
+      <c r="C19" s="46" t="str">
         <f>Estimate!H27</f>
         <v>m3</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D19" s="46">
         <f>Estimate!G27</f>
         <v>0.23000000000000004</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E19" s="46">
         <f>Estimate!I27</f>
         <v>10634.5</v>
       </c>
-      <c r="F20" s="46">
-        <f>D20*E20</f>
+      <c r="F19" s="46">
+        <f>D19*E19</f>
         <v>2445.9350000000004</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G19" s="46">
         <f>Valuation!G27</f>
         <v>0.18400000000000002</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H19" s="46">
         <f>Valuation!I27</f>
         <v>10634.5</v>
       </c>
+      <c r="I19" s="46">
+        <f>G19*H19</f>
+        <v>1956.7480000000003</v>
+      </c>
+      <c r="J19" s="47">
+        <f>I19-F19</f>
+        <v>-489.18700000000013</v>
+      </c>
+      <c r="K19" s="48"/>
+      <c r="M19" s="57">
+        <f t="shared" si="0"/>
+        <v>3057.4187500000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="53" t="str">
+        <f>Estimate!B28</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46">
+        <f>Estimate!J28</f>
+        <v>241.27824933333341</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="46">
-        <f>G20*H20</f>
-        <v>1956.7480000000003</v>
+        <f>Valuation!J28</f>
+        <v>193.02259946666672</v>
       </c>
       <c r="J20" s="47">
         <f>I20-F20</f>
-        <v>-489.18700000000013</v>
+        <v>-48.255649866666687</v>
       </c>
       <c r="K20" s="48"/>
       <c r="M20" s="57">
         <f t="shared" si="0"/>
-        <v>3057.4187500000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="53" t="str">
-        <f>Estimate!B28</f>
-        <v>VAT calculation</v>
-      </c>
+        <v>301.59781166666676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="46">
-        <f>Estimate!J28</f>
-        <v>241.27824933333341</v>
-      </c>
+      <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
-      <c r="I21" s="46">
-        <f>Valuation!J28</f>
-        <v>193.02259946666672</v>
-      </c>
-      <c r="J21" s="47">
-        <f>I21-F21</f>
-        <v>-48.255649866666687</v>
-      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="48"/>
-      <c r="M21" s="57">
-        <f t="shared" si="0"/>
-        <v>301.59781166666676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="M22" s="57"/>
-    </row>
-    <row r="23" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
         <f>Estimate!A30</f>
         <v>5</v>
       </c>
-      <c r="B23" s="56" t="str">
+      <c r="B22" s="56" t="str">
         <f>Estimate!B30</f>
         <v xml:space="preserve">e'O{+tNnfdf lrDgL e§fsf] O{+6fsf] uf/f] l;d]G6 d;nf -!M^_ df </v>
       </c>
-      <c r="C23" s="46" t="str">
+      <c r="C22" s="46" t="str">
         <f>Estimate!H34</f>
         <v>m3</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D22" s="46">
         <f>Estimate!G34</f>
         <v>1.6477453520268213</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E22" s="46">
         <f>Estimate!I34</f>
         <v>14362.76</v>
       </c>
-      <c r="F23" s="46">
-        <f>D23*E23</f>
+      <c r="F22" s="46">
+        <f>D22*E22</f>
         <v>23666.171032276747</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G22" s="46">
         <f>Valuation!G34</f>
         <v>1.3784650000000001</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H22" s="46">
         <f>Valuation!I34</f>
         <v>14362.76</v>
       </c>
+      <c r="I22" s="46">
+        <f>G22*H22</f>
+        <v>19798.5619634</v>
+      </c>
+      <c r="J22" s="47">
+        <f>I22-F22</f>
+        <v>-3867.6090688767472</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="M22" s="57">
+        <f t="shared" si="0"/>
+        <v>29582.713790345933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="53" t="str">
+        <f>Estimate!B35</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
+        <f>Estimate!J35</f>
+        <v>2208.8458153201773</v>
+      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="46">
-        <f>G23*H23</f>
-        <v>19798.5619634</v>
+        <f>Valuation!J35</f>
+        <v>1847.8684482830001</v>
       </c>
       <c r="J23" s="47">
         <f>I23-F23</f>
-        <v>-3867.6090688767472</v>
+        <v>-360.97736703717715</v>
       </c>
       <c r="K23" s="48"/>
       <c r="M23" s="57">
         <f t="shared" si="0"/>
-        <v>29582.713790345933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="53" t="str">
-        <f>Estimate!B35</f>
-        <v>VAT calculation</v>
-      </c>
+        <v>2761.0572691502216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="46">
-        <f>Estimate!J35</f>
-        <v>2208.8458153201773</v>
-      </c>
+      <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
-      <c r="I24" s="46">
-        <f>Valuation!J35</f>
-        <v>1847.8684482830001</v>
-      </c>
-      <c r="J24" s="47">
-        <f>I24-F24</f>
-        <v>-360.97736703717715</v>
-      </c>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="48"/>
-      <c r="M24" s="57">
-        <f t="shared" si="0"/>
-        <v>2761.0572691502216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="M25" s="57"/>
-    </row>
-    <row r="26" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="M24" s="57"/>
+    </row>
+    <row r="25" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
         <f>Estimate!A37</f>
         <v>6</v>
       </c>
-      <c r="B26" s="56" t="str">
+      <c r="B25" s="56" t="str">
         <f>Estimate!B37</f>
         <v xml:space="preserve">dfn;fdfg pknAw u/L %) dL=dL= df]6f] x]eL 8o"6L OG6/nls+u s+lqm6Ans %) dL=dL=df]6fOsf] qm;/ 8:6 dfyL /fvL la5ofpg]] sfd k'/f </v>
       </c>
-      <c r="C26" s="46" t="str">
+      <c r="C25" s="46" t="str">
         <f>Estimate!H41</f>
         <v>m2</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D25" s="46">
         <f>Estimate!G41</f>
         <v>132.36067052727827</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E25" s="46">
         <f>Estimate!I41</f>
         <v>1737.28</v>
       </c>
-      <c r="F26" s="46">
-        <f>D26*E26</f>
+      <c r="F25" s="46">
+        <f>D25*E25</f>
         <v>229947.54569363</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G25" s="46">
         <f>Valuation!G39</f>
         <v>135</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H25" s="46">
         <f>Valuation!I39</f>
         <v>1737.28</v>
       </c>
+      <c r="I25" s="46">
+        <f>G25*H25</f>
+        <v>234532.8</v>
+      </c>
+      <c r="J25" s="47">
+        <f>I25-F25</f>
+        <v>4585.254306369985</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="M25" s="57">
+        <f>1.25*F25</f>
+        <v>287434.43211703748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="53" t="str">
+        <f>Estimate!B42</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46">
+        <f>Estimate!J42</f>
+        <v>11955.00106696251</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="46">
-        <f>G26*H26</f>
-        <v>234532.8</v>
+        <f>Valuation!J40</f>
+        <v>12193.388999999999</v>
       </c>
       <c r="J26" s="47">
         <f>I26-F26</f>
-        <v>4585.254306369985</v>
+        <v>238.38793303748935</v>
       </c>
       <c r="K26" s="48"/>
       <c r="M26" s="57">
-        <f>1.25*F26</f>
-        <v>287434.43211703748</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="53" t="str">
-        <f>Estimate!B42</f>
-        <v>VAT calculation</v>
-      </c>
+        <f t="shared" ref="M26" si="1">1.25*F26</f>
+        <v>14943.751333703138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
-      <c r="F27" s="46">
-        <f>Estimate!J42</f>
-        <v>11955.00106696251</v>
-      </c>
+      <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="46">
-        <f>Valuation!J40</f>
-        <v>12193.388999999999</v>
-      </c>
-      <c r="J27" s="47">
-        <f>I27-F27</f>
-        <v>238.38793303748935</v>
-      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="48"/>
-      <c r="M27" s="57">
-        <f t="shared" ref="M27" si="1">1.25*F27</f>
-        <v>14943.751333703138</v>
-      </c>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="M28" s="57"/>
-    </row>
-    <row r="29" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A28" s="54">
         <f>Estimate!A44</f>
         <v>7</v>
       </c>
-      <c r="B29" s="49" t="str">
+      <c r="B28" s="49" t="str">
         <f>Estimate!B44</f>
         <v>Information board (सुचना पाटि)</v>
       </c>
-      <c r="C29" s="46" t="str">
+      <c r="C28" s="46" t="str">
         <f>Estimate!H44</f>
         <v>no.</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D28" s="46">
         <f>Estimate!G44</f>
         <v>1</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E28" s="46">
         <f>Estimate!I44</f>
         <v>500</v>
       </c>
-      <c r="F29" s="46">
-        <f>D29*E29</f>
+      <c r="F28" s="46">
+        <f>D28*E28</f>
         <v>500</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G28" s="46">
         <f>Valuation!G42</f>
         <v>1</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H28" s="46">
         <f>Valuation!I42</f>
         <v>500</v>
       </c>
-      <c r="I29" s="46">
-        <f>G29*H29</f>
+      <c r="I28" s="46">
+        <f>G28*H28</f>
         <v>500</v>
       </c>
-      <c r="J29" s="47">
-        <f>I29-F29</f>
+      <c r="J28" s="47">
+        <f>I28-F28</f>
         <v>0</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="M29" s="57">
+      <c r="K28" s="48"/>
+      <c r="M28" s="57">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="50" t="s">
+    <row r="29" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51">
-        <f>SUM(F13:F29)</f>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51">
+        <f>SUM(F12:F28)</f>
         <v>282373.23585084308</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51">
-        <f>SUM(I13:I29)</f>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51">
+        <f>SUM(I12:I28)</f>
         <v>283710.37399446999</v>
       </c>
-      <c r="J31" s="52">
-        <f>I31-F31</f>
+      <c r="J30" s="52">
+        <f>I30-F30</f>
         <v>1337.1381436269148</v>
       </c>
-      <c r="K31" s="28"/>
-    </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K36">
+      <c r="K30" s="28"/>
+    </row>
+    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K35">
         <v>1070</v>
       </c>
-      <c r="L36">
+      <c r="L35">
         <f>(21/3.281)*(36/3.281)</f>
         <v>70.227843835198286</v>
       </c>
-      <c r="M36">
-        <f>L36*K36</f>
+      <c r="M35">
+        <f>L35*K35</f>
         <v>75143.792903662164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -3317,10 +3307,23 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;LPrepared By:
 &amp;CChecked By:
@@ -3334,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,38 +3431,38 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="A6" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="H7" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3516,7 +3519,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -3543,7 +3546,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -3610,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -3625,7 +3628,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -3716,7 +3719,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -3815,7 +3818,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -3830,7 +3833,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -3942,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
@@ -3957,7 +3960,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="41">
         <v>0.5</v>
@@ -4010,7 +4013,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="41">
         <v>1</v>
@@ -4089,12 +4092,12 @@
       <c r="J36" s="15"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="16" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>6</v>
       </c>
       <c r="B37" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="70"/>
       <c r="D37" s="19"/>
@@ -4109,7 +4112,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="21">
         <v>1</v>
@@ -4144,7 +4147,7 @@
         <v>135</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="23">
         <v>1737.28</v>
@@ -4264,11 +4267,11 @@
       <c r="B46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="81">
         <f>J44</f>
         <v>283710.37399446999</v>
       </c>
-      <c r="D46" s="73"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="19">
         <v>100</v>
       </c>
@@ -4284,10 +4287,10 @@
       <c r="B47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="84">
         <v>250000</v>
       </c>
-      <c r="D47" s="76"/>
+      <c r="D47" s="84"/>
       <c r="E47" s="19"/>
       <c r="F47" s="38"/>
       <c r="G47" s="39"/>
@@ -4301,11 +4304,11 @@
       <c r="B48" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="84">
         <f>C47-C50-C51</f>
         <v>237500</v>
       </c>
-      <c r="D48" s="76"/>
+      <c r="D48" s="84"/>
       <c r="E48" s="19">
         <f>C48/C46*100</f>
         <v>83.712131021556971</v>
@@ -4322,11 +4325,11 @@
       <c r="B49" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="81">
         <f>C46-C48</f>
         <v>46210.373994469992</v>
       </c>
-      <c r="D49" s="73"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="19">
         <f>100-E48</f>
         <v>16.287868978443029</v>
@@ -4343,11 +4346,11 @@
       <c r="B50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="81">
         <f>C47*0.03</f>
         <v>7500</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="19">
         <v>3</v>
       </c>
@@ -4363,11 +4366,11 @@
       <c r="B51" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="81">
         <f>C47*0.02</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="19">
         <v>2</v>
       </c>
@@ -4380,13 +4383,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="A7:F7"/>
@@ -4395,9 +4391,16 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
@@ -4408,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,7 +4491,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -4502,35 +4505,35 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="A6" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="59" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -4588,7 +4591,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -4615,7 +4618,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -4682,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -4697,7 +4700,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -4788,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -4887,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -4902,7 +4905,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -5014,7 +5017,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
@@ -5029,7 +5032,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="41">
         <v>0.5</v>
@@ -5082,7 +5085,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="41">
         <v>1</v>
@@ -5166,7 +5169,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="70"/>
       <c r="D37" s="19"/>
@@ -5181,7 +5184,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="21">
         <v>1</v>
@@ -5216,7 +5219,7 @@
         <v>135</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="23">
         <v>1737.28</v>
@@ -5336,11 +5339,11 @@
       <c r="B46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="81">
         <f>J44</f>
         <v>283710.37399446999</v>
       </c>
-      <c r="D46" s="73"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="19">
         <v>100</v>
       </c>
@@ -5356,10 +5359,10 @@
       <c r="B47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="84">
         <v>250000</v>
       </c>
-      <c r="D47" s="76"/>
+      <c r="D47" s="84"/>
       <c r="E47" s="19"/>
       <c r="F47" s="38"/>
       <c r="G47" s="39"/>
@@ -5373,11 +5376,11 @@
       <c r="B48" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="84">
         <f>C47-C50-C51</f>
         <v>237500</v>
       </c>
-      <c r="D48" s="76"/>
+      <c r="D48" s="84"/>
       <c r="E48" s="19">
         <f>C48/C46*100</f>
         <v>83.712131021556971</v>
@@ -5394,11 +5397,11 @@
       <c r="B49" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="81">
         <f>C46-C48</f>
         <v>46210.373994469992</v>
       </c>
-      <c r="D49" s="73"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="19">
         <f>100-E48</f>
         <v>16.287868978443029</v>
@@ -5415,11 +5418,11 @@
       <c r="B50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="81">
         <f>C47*0.03</f>
         <v>7500</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="19">
         <v>3</v>
       </c>
@@ -5435,11 +5438,11 @@
       <c r="B51" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="81">
         <f>C47*0.02</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="19">
         <v>2</v>
       </c>
@@ -5452,6 +5455,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="A7:F7"/>
@@ -5459,15 +5468,9 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
@@ -5493,21 +5496,21 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5519,7 +5522,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -5534,7 +5537,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>4.5</v>
@@ -5550,15 +5553,15 @@
         <v>16</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>4.5</v>
@@ -5571,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="68">
         <f>(Valuation!G21*6360.9/10)+(Valuation!G34*8481.2)</f>
@@ -5588,7 +5591,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>4.5</v>
@@ -5601,7 +5604,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="68">
         <f>(Valuation!G21*2256.3/10)+(Valuation!G27*21432.6/15)+(Valuation!G34*(953.37))</f>
@@ -5618,7 +5621,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>4.5</v>
@@ -5631,7 +5634,7 @@
         <v>2.1</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="68">
         <f>(Valuation!G27*49275.03/15+Valuation!G34*849.17)</f>
@@ -5648,7 +5651,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>4.5</v>
@@ -5661,7 +5664,7 @@
         <v>2.1</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="68">
         <f>Valuation!G27*(25719.12+13573.98+4286.52)/15</f>
@@ -5678,7 +5681,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>4.5</v>
@@ -5691,7 +5694,7 @@
         <v>2.1</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="68">
         <f>(Valuation!G27*(620)/15)+Valuation!G34*28</f>
@@ -5708,7 +5711,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>4.5</v>
@@ -5721,7 +5724,7 @@
         <v>2.1</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="68">
         <f>Valuation!G27*(6135.3)/15</f>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>4.5</v>
@@ -5751,7 +5754,7 @@
         <v>2.1</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="68">
         <f>(Valuation!G39*6036.36/10)</f>
@@ -5768,7 +5771,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>4.5</v>
@@ -5781,7 +5784,7 @@
         <v>2.1</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="68">
         <f>(Valuation!G39*33.99/10)+(Valuation!G39*877.45/10)</f>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>4.5</v>
@@ -5814,7 +5817,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>4.5</v>
@@ -5838,7 +5841,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>4.5</v>
@@ -5851,7 +5854,7 @@
         <v>2.1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" s="68">
         <f>Valuation!J22+Valuation!J28+Valuation!J35+Valuation!J40</f>
@@ -5860,7 +5863,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>4.5</v>
@@ -5876,7 +5879,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>4.5</v>
